--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Itgb5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.482197343878956</v>
+        <v>0.116649</v>
       </c>
       <c r="H2">
-        <v>0.482197343878956</v>
+        <v>0.349947</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.186245347817965</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.186245347817965</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N2">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O2">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P2">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q2">
-        <v>2.642770433136826</v>
+        <v>0.7146459380190001</v>
       </c>
       <c r="R2">
-        <v>2.642770433136826</v>
+        <v>6.431813442171</v>
       </c>
       <c r="S2">
-        <v>0.09937247448702043</v>
+        <v>0.02013496253973623</v>
       </c>
       <c r="T2">
-        <v>0.09937247448702043</v>
+        <v>0.02013496253973623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.482197343878956</v>
+        <v>0.116649</v>
       </c>
       <c r="H3">
-        <v>0.482197343878956</v>
+        <v>0.349947</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.186245347817965</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.186245347817965</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N3">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O3">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P3">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q3">
-        <v>16.99310094613224</v>
+        <v>4.168728317598</v>
       </c>
       <c r="R3">
-        <v>16.99310094613224</v>
+        <v>37.518554858382</v>
       </c>
       <c r="S3">
-        <v>0.638968284589349</v>
+        <v>0.117452830902317</v>
       </c>
       <c r="T3">
-        <v>0.638968284589349</v>
+        <v>0.1174528309023171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.482197343878956</v>
+        <v>0.116649</v>
       </c>
       <c r="H4">
-        <v>0.482197343878956</v>
+        <v>0.349947</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.186245347817965</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.186245347817965</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N4">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O4">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P4">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q4">
-        <v>6.958720803116535</v>
+        <v>1.726992216651</v>
       </c>
       <c r="R4">
-        <v>6.958720803116535</v>
+        <v>15.542929949859</v>
       </c>
       <c r="S4">
-        <v>0.2616592409236305</v>
+        <v>0.0486575543759117</v>
       </c>
       <c r="T4">
-        <v>0.2616592409236305</v>
+        <v>0.0486575543759117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.50967</v>
+      </c>
+      <c r="H5">
+        <v>1.52901</v>
+      </c>
+      <c r="I5">
+        <v>0.813754652182035</v>
+      </c>
+      <c r="J5">
+        <v>0.813754652182035</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6.126464333333334</v>
+      </c>
+      <c r="N5">
+        <v>18.379393</v>
+      </c>
+      <c r="O5">
+        <v>0.1081098818071741</v>
+      </c>
+      <c r="P5">
+        <v>0.1081098818071741</v>
+      </c>
+      <c r="Q5">
+        <v>3.12247507677</v>
+      </c>
+      <c r="R5">
+        <v>28.10227569093</v>
+      </c>
+      <c r="S5">
+        <v>0.08797491926743789</v>
+      </c>
+      <c r="T5">
+        <v>0.08797491926743789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.50967</v>
+      </c>
+      <c r="H6">
+        <v>1.52901</v>
+      </c>
+      <c r="I6">
+        <v>0.813754652182035</v>
+      </c>
+      <c r="J6">
+        <v>0.813754652182035</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>35.73736866666667</v>
+      </c>
+      <c r="N6">
+        <v>107.212106</v>
+      </c>
+      <c r="O6">
+        <v>0.6306349784216607</v>
+      </c>
+      <c r="P6">
+        <v>0.6306349784216608</v>
+      </c>
+      <c r="Q6">
+        <v>18.21426468834</v>
+      </c>
+      <c r="R6">
+        <v>163.92838219506</v>
+      </c>
+      <c r="S6">
+        <v>0.5131821475193437</v>
+      </c>
+      <c r="T6">
+        <v>0.5131821475193438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.50967</v>
+      </c>
+      <c r="H7">
+        <v>1.52901</v>
+      </c>
+      <c r="I7">
+        <v>0.813754652182035</v>
+      </c>
+      <c r="J7">
+        <v>0.813754652182035</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.80503233333333</v>
+      </c>
+      <c r="N7">
+        <v>44.415097</v>
+      </c>
+      <c r="O7">
+        <v>0.2612551397711651</v>
+      </c>
+      <c r="P7">
+        <v>0.2612551397711651</v>
+      </c>
+      <c r="Q7">
+        <v>7.54568082933</v>
+      </c>
+      <c r="R7">
+        <v>67.91112746397</v>
+      </c>
+      <c r="S7">
+        <v>0.2125975853952534</v>
+      </c>
+      <c r="T7">
+        <v>0.2125975853952534</v>
       </c>
     </row>
   </sheetData>
